--- a/Ecommerce.xlsx
+++ b/Ecommerce.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -618,9 +618,26 @@
         <v>gcQ14W8JrmNasqBmSM59D</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>iphone pro max</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>8000</v>
+      </c>
+      <c r="E13" t="str">
+        <v>rJGQPzfw7ARPKqzEUV3mg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Ecommerce.xlsx
+++ b/Ecommerce.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -635,9 +635,26 @@
         <v>rJGQPzfw7ARPKqzEUV3mg</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>odhv</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>7.5</v>
+      </c>
+      <c r="D14">
+        <v>9.25</v>
+      </c>
+      <c r="E14" t="str">
+        <v>RBvqA-sPNBv6AdCmj_l7B</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I14"/>
   </ignoredErrors>
 </worksheet>
 </file>